--- a/biology/Médecine/Franco_Fornari/Franco_Fornari.xlsx
+++ b/biology/Médecine/Franco_Fornari/Franco_Fornari.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Franco Fornari, né à Rivergaro, province de Plaisance, le 18 avril 1921, et mort à Milan le 20 mai 1985, est devenu neuropsychiatre puis psychanalyste avec une analyse chez Cesare Musatti[1].
-Très tôt, il est influencé par Melanie Klein[2] et Wilfred Bion[1].
-Il est considéré comme un analyste de troisième génération et contribue au développement des idées et de la pensée de la psychanalyse italienne des années 1960 à 1980[3]. Dans ses positions sur la question du deuil, il suggère également que le conflit est un mécanisme de défense contre la rage et la peur intérieure[4],[2].
-Il est directeur de l'Institut de psychologie du Département de littérature et de philosophie de l'université de Milan. Ses recherches se concentrent sur les mécanismes menant à la guerre en identifiant les angoisses et fantasmes psychotiques qui régissent le comportement des individus en groupe[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Franco Fornari, né à Rivergaro, province de Plaisance, le 18 avril 1921, et mort à Milan le 20 mai 1985, est devenu neuropsychiatre puis psychanalyste avec une analyse chez Cesare Musatti.
+Très tôt, il est influencé par Melanie Klein et Wilfred Bion.
+Il est considéré comme un analyste de troisième génération et contribue au développement des idées et de la pensée de la psychanalyse italienne des années 1960 à 1980. Dans ses positions sur la question du deuil, il suggère également que le conflit est un mécanisme de défense contre la rage et la peur intérieure,.
+Il est directeur de l'Institut de psychologie du Département de littérature et de philosophie de l'université de Milan. Ses recherches se concentrent sur les mécanismes menant à la guerre en identifiant les angoisses et fantasmes psychotiques qui régissent le comportement des individus en groupe.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Psychanalyse de la situation atomique, Gallimard Essais no 148, 1969,  (ISBN 2070269981)
 Sexualité et culture, Presses universitaires de France, 1980,  (ISBN 2130360491)
